--- a/AnQa.xlsx
+++ b/AnQa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\TelegramBotClean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2BF0D3F-6AC3-4C9C-88EA-EC0CBD508B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583CB80D-80C4-4883-BC20-601FE9430E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3758E01C-1FC4-43D9-BE27-D11DBD00CC79}"/>
   </bookViews>
@@ -212,9 +212,6 @@
     <t xml:space="preserve">14 st  shagret eldor </t>
   </si>
   <si>
-    <t>Unit Name</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>Luggage</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -810,43 +810,43 @@
   <sheetData>
     <row r="1" spans="1:23" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>69</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>70</v>
       </c>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>

--- a/AnQa.xlsx
+++ b/AnQa.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\TelegramBotClean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmentorscorp-my.sharepoint.com/personal/mahran_saber_fastautomate_com/Documents/Desktop/TelegramBotClean/TelegramBotClean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583CB80D-80C4-4883-BC20-601FE9430E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{583CB80D-80C4-4883-BC20-601FE9430E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{362B4F4B-307F-4AD9-A736-ACA0306016B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3758E01C-1FC4-43D9-BE27-D11DBD00CC79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3758E01C-1FC4-43D9-BE27-D11DBD00CC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="71">
   <si>
-    <t>Zamalek 1 Taha Hussein</t>
-  </si>
-  <si>
     <t>Cairo Governorate</t>
   </si>
   <si>
@@ -249,6 +244,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>Zamalek Taha Hussein</t>
   </si>
 </sst>
 </file>
@@ -259,7 +257,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -273,7 +271,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,7 +291,7 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF434343"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,14 +304,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -786,67 +784,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487ECB4E-34BA-4DE1-9322-F7D090ED72E3}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="6.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>68</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
@@ -859,18 +857,18 @@
       <c r="V1" s="22"/>
       <c r="W1" s="22"/>
     </row>
-    <row r="2" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
         <v>13</v>
@@ -891,27 +889,27 @@
         <v>2.5</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="27" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="10">
         <v>9</v>
@@ -932,27 +930,27 @@
         <v>1.5</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:23" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="5">
         <v>5</v>
@@ -973,27 +971,27 @@
         <v>2</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="114.75" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="10">
         <v>5</v>
@@ -1014,27 +1012,27 @@
         <v>2</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="63.75" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="5">
         <v>13</v>
@@ -1055,27 +1053,27 @@
         <v>2</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="10">
         <v>2</v>
@@ -1096,27 +1094,27 @@
         <v>2</v>
       </c>
       <c r="K7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E8" s="5">
         <v>9</v>
@@ -1137,27 +1135,27 @@
         <v>2</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="204" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="204" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="E9" s="10">
         <v>4</v>
@@ -1178,27 +1176,27 @@
         <v>3</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="204" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:23" ht="204" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="5">
         <v>4</v>
@@ -1219,27 +1217,27 @@
         <v>1</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="204" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:23" ht="204" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="E11" s="10">
         <v>4</v>
@@ -1260,27 +1258,27 @@
         <v>1</v>
       </c>
       <c r="K11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="204" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:23" ht="204" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E12" s="5">
         <v>4</v>
@@ -1301,27 +1299,27 @@
         <v>1</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:23" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="E13" s="10">
         <v>4</v>
@@ -1342,27 +1340,27 @@
         <v>2</v>
       </c>
       <c r="K13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="E14" s="5">
         <v>36</v>
@@ -1383,30 +1381,30 @@
         <v>2.5</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="F15" s="10">
         <v>4</v>
@@ -1424,25 +1422,25 @@
         <v>2</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E16" s="5">
         <v>2</v>
@@ -1463,25 +1461,25 @@
         <v>5</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="10">
         <v>2</v>
@@ -1502,25 +1500,25 @@
         <v>1.5</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="5">
         <v>2</v>
@@ -1541,25 +1539,25 @@
         <v>1.5</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="10">
         <v>2</v>
@@ -1580,28 +1578,28 @@
         <v>2</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1609,28 +1607,28 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="E21" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -1641,18 +1639,18 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E22" s="5">
         <v>7</v>
@@ -1676,15 +1674,15 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="10">
@@ -1699,15 +1697,15 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="5">
@@ -1722,18 +1720,18 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="E25" s="10">
         <v>4</v>
@@ -1747,18 +1745,18 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -1772,18 +1770,18 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="E27" s="10">
         <v>8</v>
@@ -1797,10 +1795,10 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="21"/>
@@ -1824,7 +1822,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F8C409AE-465A-4364-A95A-CA70385A369A}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Zamalek 1 Taha Hussein" xr:uid="{F8C409AE-465A-4364-A95A-CA70385A369A}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{31587C42-80B1-44D5-B780-408324A8D213}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{CD5D3AFF-47FA-4078-B0CC-0C14FE1C608B}"/>
     <hyperlink ref="D3" r:id="rId4" xr:uid="{20926518-1EC1-4F71-B399-505D3957E319}"/>
